--- a/Documentation/Moves_rebalance.xlsx
+++ b/Documentation/Moves_rebalance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932AA12C-2421-4883-A30A-4509C5EA37C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B45E9-9990-4CBA-A845-895546484EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6AFD99A4-200C-4842-AF5C-A76FCDBB921C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="531">
   <si>
     <t>ID</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Cut</t>
   </si>
   <si>
-    <t>50 -&gt; 55</t>
-  </si>
-  <si>
     <t>Normal -&gt; Bug</t>
   </si>
   <si>
@@ -396,9 +393,6 @@
     <t>Razor Leaf</t>
   </si>
   <si>
-    <t>55 -&gt; 70</t>
-  </si>
-  <si>
     <t>25 -&gt; 20</t>
   </si>
   <si>
@@ -1128,9 +1122,6 @@
     <t>Poison Fang</t>
   </si>
   <si>
-    <t>30% badly poison -&gt; 50% badly poison</t>
-  </si>
-  <si>
     <t>Crush Claw</t>
   </si>
   <si>
@@ -1176,9 +1167,6 @@
     <t>Metal Sound</t>
   </si>
   <si>
-    <t>Grasswhistle</t>
-  </si>
-  <si>
     <t>Tickle</t>
   </si>
   <si>
@@ -1293,9 +1281,6 @@
     <t>Cotton Spore</t>
   </si>
   <si>
-    <t>Milk Drink</t>
-  </si>
-  <si>
     <t>Snatch</t>
   </si>
   <si>
@@ -1569,9 +1554,6 @@
     <t>Rock -&gt; Ground</t>
   </si>
   <si>
-    <t>95 -&gt; 100</t>
-  </si>
-  <si>
     <t>30% lower Sp. Def.</t>
   </si>
   <si>
@@ -1618,6 +1600,24 @@
   </si>
   <si>
     <t>95 -&gt; 80</t>
+  </si>
+  <si>
+    <t>95 -&gt; 85</t>
+  </si>
+  <si>
+    <t>Grass Knot</t>
+  </si>
+  <si>
+    <t>Varies</t>
+  </si>
+  <si>
+    <t>Damage depends on opponent's mass</t>
+  </si>
+  <si>
+    <t>Buzz</t>
+  </si>
+  <si>
+    <t>Raise Attack; lower foe's Attack</t>
   </si>
 </sst>
 </file>
@@ -1971,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0B04A4-C62F-4DD5-A61E-487735385639}">
   <dimension ref="A1:H355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2098,7 +2098,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -2124,7 +2124,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -2286,7 +2286,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -2303,7 +2303,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -2312,7 +2312,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -2332,7 +2332,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -2367,7 +2367,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
@@ -2393,7 +2393,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
@@ -2407,7 +2407,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -2433,10 +2433,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -2459,7 +2459,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -2511,13 +2511,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -2537,11 +2537,11 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
@@ -2563,7 +2563,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -2575,7 +2575,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G23" t="s">
         <v>30</v>
@@ -2589,7 +2589,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -2615,19 +2615,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>53</v>
       </c>
       <c r="G25" t="s">
         <v>7</v>
@@ -2641,10 +2641,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -2653,7 +2653,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s">
         <v>7</v>
@@ -2667,10 +2667,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -2693,10 +2693,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2705,7 +2705,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
         <v>7</v>
@@ -2719,13 +2719,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
         <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -2745,7 +2745,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -2771,7 +2771,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -2797,13 +2797,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" t="s">
         <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -2823,7 +2823,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -2849,7 +2849,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -2875,13 +2875,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -2901,13 +2901,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -2927,7 +2927,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -2953,11 +2953,11 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
         <v>71</v>
       </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G38" t="s">
         <v>7</v>
@@ -2979,7 +2979,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -3005,7 +3005,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -3031,10 +3031,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -3057,10 +3057,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
         <v>78</v>
-      </c>
-      <c r="C42" t="s">
-        <v>79</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -3083,16 +3083,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
         <v>80</v>
       </c>
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F43" t="s">
         <v>24</v>
@@ -3109,7 +3109,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -3135,7 +3135,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -3161,7 +3161,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -3187,7 +3187,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -3213,13 +3213,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
         <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>87</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
@@ -3239,13 +3239,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -3265,7 +3265,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50">
         <v>55</v>
@@ -3280,10 +3280,10 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -3291,16 +3291,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
         <v>91</v>
       </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" t="s">
-        <v>92</v>
-      </c>
       <c r="E51" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -3317,7 +3317,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
         <v>26</v>
@@ -3329,13 +3329,13 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
       </c>
       <c r="H52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -3343,7 +3343,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -3369,7 +3369,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -3395,7 +3395,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -3421,7 +3421,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -3447,7 +3447,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -3473,10 +3473,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -3485,7 +3485,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G58" t="s">
         <v>7</v>
@@ -3499,7 +3499,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -3525,7 +3525,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -3543,7 +3543,7 @@
         <v>7</v>
       </c>
       <c r="H60" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -3551,7 +3551,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -3569,7 +3569,7 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -3577,7 +3577,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -3595,7 +3595,7 @@
         <v>7</v>
       </c>
       <c r="H62" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -3603,7 +3603,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -3621,7 +3621,7 @@
         <v>7</v>
       </c>
       <c r="H63" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -3629,10 +3629,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
         <v>107</v>
-      </c>
-      <c r="C64" t="s">
-        <v>108</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -3655,10 +3655,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -3681,7 +3681,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -3707,25 +3707,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" t="s">
         <v>111</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>214</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>374</v>
+      </c>
+      <c r="G67" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" t="s">
         <v>112</v>
-      </c>
-      <c r="D67" t="s">
-        <v>216</v>
-      </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
-        <v>377</v>
-      </c>
-      <c r="G67" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -3733,7 +3733,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -3759,7 +3759,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -3785,7 +3785,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -3811,7 +3811,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -3834,10 +3834,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -3860,10 +3860,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -3872,7 +3872,7 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G73" t="s">
         <v>7</v>
@@ -3886,7 +3886,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -3912,7 +3912,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -3921,7 +3921,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F75" t="s">
         <v>7</v>
@@ -3935,22 +3935,22 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
         <v>122</v>
       </c>
-      <c r="C76" t="s">
-        <v>123</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>124</v>
-      </c>
       <c r="G76" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H76" t="s">
         <v>7</v>
@@ -3961,10 +3961,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C77" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -3987,7 +3987,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -4013,7 +4013,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -4039,7 +4039,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -4065,19 +4065,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" t="s">
+        <v>128</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
         <v>129</v>
-      </c>
-      <c r="C81" t="s">
-        <v>130</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>131</v>
       </c>
       <c r="G81" t="s">
         <v>7</v>
@@ -4091,7 +4091,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -4117,7 +4117,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C83">
         <v>90</v>
@@ -4132,10 +4132,10 @@
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -4143,13 +4143,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D84" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
@@ -4169,7 +4169,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -4195,7 +4195,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -4221,13 +4221,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
@@ -4247,7 +4247,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -4273,7 +4273,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -4299,7 +4299,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
@@ -4325,7 +4325,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -4351,10 +4351,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C92" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -4377,7 +4377,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -4403,7 +4403,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
@@ -4455,13 +4455,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E96" t="s">
         <v>7</v>
@@ -4473,7 +4473,7 @@
         <v>7</v>
       </c>
       <c r="H96" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
@@ -4481,7 +4481,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -4493,13 +4493,13 @@
         <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G97" t="s">
         <v>7</v>
       </c>
       <c r="H97" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
@@ -4507,7 +4507,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -4519,7 +4519,7 @@
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G98" t="s">
         <v>7</v>
@@ -4533,7 +4533,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -4559,10 +4559,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -4585,7 +4585,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -4611,7 +4611,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
@@ -4637,7 +4637,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -4663,7 +4663,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -4675,7 +4675,7 @@
         <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G104" t="s">
         <v>7</v>
@@ -4689,7 +4689,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -4715,7 +4715,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
@@ -4741,7 +4741,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -4767,7 +4767,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -4793,13 +4793,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E109" t="s">
         <v>7</v>
@@ -4819,13 +4819,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E110" t="s">
         <v>7</v>
@@ -4845,7 +4845,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -4857,7 +4857,7 @@
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G111" t="s">
         <v>7</v>
@@ -4871,7 +4871,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -4883,7 +4883,7 @@
         <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G112" t="s">
         <v>7</v>
@@ -4897,7 +4897,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -4909,7 +4909,7 @@
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G113" t="s">
         <v>7</v>
@@ -4923,7 +4923,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -4935,7 +4935,7 @@
         <v>7</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G114" t="s">
         <v>7</v>
@@ -4949,7 +4949,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
@@ -4961,7 +4961,7 @@
         <v>7</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="s">
         <v>7</v>
@@ -4975,7 +4975,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -4987,7 +4987,7 @@
         <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="s">
         <v>7</v>
@@ -5001,7 +5001,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
@@ -5027,7 +5027,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
@@ -5053,7 +5053,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -5065,7 +5065,7 @@
         <v>7</v>
       </c>
       <c r="F119" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G119" t="s">
         <v>7</v>
@@ -5079,7 +5079,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
@@ -5105,7 +5105,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -5131,13 +5131,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E122" t="s">
         <v>7</v>
@@ -5157,10 +5157,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C123" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
@@ -5169,7 +5169,7 @@
         <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G123" t="s">
         <v>7</v>
@@ -5183,13 +5183,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C124" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D124" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
@@ -5201,7 +5201,7 @@
         <v>34</v>
       </c>
       <c r="H124" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
@@ -5209,7 +5209,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -5235,7 +5235,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -5244,7 +5244,7 @@
         <v>20</v>
       </c>
       <c r="E126" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F126" t="s">
         <v>7</v>
@@ -5253,7 +5253,7 @@
         <v>7</v>
       </c>
       <c r="H126" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
@@ -5261,13 +5261,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E127" t="s">
         <v>7</v>
@@ -5287,7 +5287,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
@@ -5313,19 +5313,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C129" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D129" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
       </c>
       <c r="F129" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G129" t="s">
         <v>30</v>
@@ -5339,10 +5339,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C130" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
@@ -5365,10 +5365,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C131" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
@@ -5377,13 +5377,13 @@
         <v>7</v>
       </c>
       <c r="F131" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G131" t="s">
         <v>7</v>
       </c>
       <c r="H131" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
@@ -5391,19 +5391,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>189</v>
+      </c>
+      <c r="C132" t="s">
+        <v>190</v>
+      </c>
+      <c r="D132" t="s">
+        <v>66</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" t="s">
         <v>191</v>
-      </c>
-      <c r="C132" t="s">
-        <v>192</v>
-      </c>
-      <c r="D132" t="s">
-        <v>67</v>
-      </c>
-      <c r="E132" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" t="s">
-        <v>193</v>
       </c>
       <c r="G132" t="s">
         <v>34</v>
@@ -5417,10 +5417,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C133" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -5429,13 +5429,13 @@
         <v>7</v>
       </c>
       <c r="F133" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G133" t="s">
         <v>7</v>
       </c>
       <c r="H133" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
@@ -5443,7 +5443,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
@@ -5469,7 +5469,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
@@ -5487,7 +5487,7 @@
         <v>7</v>
       </c>
       <c r="H135" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
@@ -5495,7 +5495,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
@@ -5521,7 +5521,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C137" t="s">
         <v>20</v>
@@ -5533,7 +5533,7 @@
         <v>7</v>
       </c>
       <c r="F137" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G137" t="s">
         <v>7</v>
@@ -5547,19 +5547,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E138" t="s">
         <v>7</v>
       </c>
       <c r="F138" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G138" t="s">
         <v>7</v>
@@ -5573,7 +5573,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -5599,10 +5599,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C140" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
@@ -5611,7 +5611,7 @@
         <v>7</v>
       </c>
       <c r="F140" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G140" t="s">
         <v>7</v>
@@ -5625,10 +5625,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C141" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
@@ -5651,10 +5651,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C142" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
@@ -5663,7 +5663,7 @@
         <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G142" t="s">
         <v>7</v>
@@ -5677,13 +5677,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E143" t="s">
         <v>7</v>
@@ -5703,10 +5703,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C144" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
@@ -5729,7 +5729,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -5755,10 +5755,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C146" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
@@ -5773,7 +5773,7 @@
         <v>7</v>
       </c>
       <c r="H146" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
@@ -5781,7 +5781,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
@@ -5807,10 +5807,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C148" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
@@ -5833,10 +5833,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C149" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
@@ -5859,13 +5859,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
       </c>
       <c r="D150" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
@@ -5885,7 +5885,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
@@ -5911,7 +5911,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
@@ -5923,7 +5923,7 @@
         <v>7</v>
       </c>
       <c r="F152" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G152" t="s">
         <v>7</v>
@@ -5937,7 +5937,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -5963,7 +5963,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
@@ -5989,13 +5989,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C155" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E155" t="s">
         <v>7</v>
@@ -6015,7 +6015,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
@@ -6024,7 +6024,7 @@
         <v>7</v>
       </c>
       <c r="E156" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F156" t="s">
         <v>7</v>
@@ -6041,7 +6041,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
@@ -6067,7 +6067,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
@@ -6093,7 +6093,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
@@ -6111,7 +6111,7 @@
         <v>7</v>
       </c>
       <c r="H159" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
@@ -6119,7 +6119,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
@@ -6145,7 +6145,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
@@ -6171,7 +6171,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C162" t="s">
         <v>7</v>
@@ -6197,7 +6197,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
@@ -6223,7 +6223,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
@@ -6249,7 +6249,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
@@ -6275,7 +6275,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
@@ -6301,7 +6301,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C167">
         <v>70</v>
@@ -6310,16 +6310,16 @@
         <v>100</v>
       </c>
       <c r="E167" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F167">
         <v>15</v>
       </c>
       <c r="G167" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H167" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
@@ -6327,7 +6327,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C168" t="s">
         <v>19</v>
@@ -6339,7 +6339,7 @@
         <v>7</v>
       </c>
       <c r="F168" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G168" t="s">
         <v>7</v>
@@ -6353,10 +6353,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C169" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
@@ -6379,7 +6379,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C170">
         <v>80</v>
@@ -6388,16 +6388,16 @@
         <v>100</v>
       </c>
       <c r="E170" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F170">
         <v>10</v>
       </c>
       <c r="G170" t="s">
+        <v>423</v>
+      </c>
+      <c r="H170" t="s">
         <v>428</v>
-      </c>
-      <c r="H170" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
@@ -6405,7 +6405,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
@@ -6431,7 +6431,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
@@ -6457,10 +6457,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C173" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
@@ -6469,13 +6469,13 @@
         <v>7</v>
       </c>
       <c r="F173" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G173" t="s">
         <v>30</v>
       </c>
       <c r="H173" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
@@ -6483,10 +6483,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C174" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -6509,7 +6509,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
@@ -6535,7 +6535,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
@@ -6561,7 +6561,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
@@ -6587,7 +6587,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C178">
         <v>80</v>
@@ -6596,16 +6596,16 @@
         <v>100</v>
       </c>
       <c r="E178" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F178">
         <v>15</v>
       </c>
       <c r="G178" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H178" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
@@ -6613,7 +6613,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -6639,7 +6639,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
@@ -6665,7 +6665,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -6691,7 +6691,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>
@@ -6717,7 +6717,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C183" t="s">
         <v>7</v>
@@ -6743,7 +6743,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
@@ -6769,7 +6769,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C185" t="s">
         <v>7</v>
@@ -6795,10 +6795,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C186" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
@@ -6821,13 +6821,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C187" t="s">
         <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E187" t="s">
         <v>7</v>
@@ -6847,7 +6847,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C188" t="s">
         <v>7</v>
@@ -6873,7 +6873,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
@@ -6899,13 +6899,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E190" t="s">
         <v>7</v>
@@ -6925,7 +6925,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C191">
         <v>120</v>
@@ -6934,16 +6934,16 @@
         <v>100</v>
       </c>
       <c r="E191" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F191">
         <v>15</v>
       </c>
       <c r="G191" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H191" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
@@ -6951,7 +6951,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C192" t="s">
         <v>7</v>
@@ -6977,10 +6977,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C193" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D193" t="s">
         <v>6</v>
@@ -7003,7 +7003,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C194" t="s">
         <v>7</v>
@@ -7015,7 +7015,7 @@
         <v>7</v>
       </c>
       <c r="F194" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G194" t="s">
         <v>7</v>
@@ -7029,7 +7029,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
@@ -7055,7 +7055,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
@@ -7064,7 +7064,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F196" t="s">
         <v>7</v>
@@ -7081,7 +7081,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C197" t="s">
         <v>7</v>
@@ -7107,7 +7107,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C198" t="s">
         <v>7</v>
@@ -7119,7 +7119,7 @@
         <v>7</v>
       </c>
       <c r="F198" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G198" t="s">
         <v>7</v>
@@ -7133,16 +7133,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E199" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F199" t="s">
         <v>7</v>
@@ -7159,7 +7159,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C200" t="s">
         <v>7</v>
@@ -7174,7 +7174,7 @@
         <v>7</v>
       </c>
       <c r="G200" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H200" t="s">
         <v>7</v>
@@ -7185,10 +7185,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C201" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D201" t="s">
         <v>7</v>
@@ -7197,7 +7197,7 @@
         <v>7</v>
       </c>
       <c r="F201" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G201" t="s">
         <v>30</v>
@@ -7211,7 +7211,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C202" t="s">
         <v>7</v>
@@ -7226,7 +7226,7 @@
         <v>7</v>
       </c>
       <c r="G202" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H202" t="s">
         <v>7</v>
@@ -7237,7 +7237,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
@@ -7249,7 +7249,7 @@
         <v>7</v>
       </c>
       <c r="F203" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G203" t="s">
         <v>7</v>
@@ -7263,7 +7263,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C204" t="s">
         <v>7</v>
@@ -7289,7 +7289,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C205" t="s">
         <v>7</v>
@@ -7315,13 +7315,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E206" t="s">
         <v>7</v>
@@ -7341,7 +7341,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C207" t="s">
         <v>7</v>
@@ -7367,7 +7367,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
@@ -7393,25 +7393,25 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>529</v>
+      </c>
+      <c r="C209" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209">
+        <v>100</v>
+      </c>
+      <c r="E209" t="s">
         <v>422</v>
       </c>
-      <c r="C209" t="s">
-        <v>7</v>
-      </c>
-      <c r="D209" t="s">
-        <v>7</v>
-      </c>
-      <c r="E209" t="s">
-        <v>7</v>
-      </c>
-      <c r="F209" t="s">
-        <v>7</v>
+      <c r="F209">
+        <v>10</v>
       </c>
       <c r="G209" t="s">
-        <v>7</v>
+        <v>474</v>
       </c>
       <c r="H209" t="s">
-        <v>7</v>
+        <v>530</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
@@ -7419,7 +7419,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C210" t="s">
         <v>7</v>
@@ -7445,13 +7445,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C211" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D211" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="E211" t="s">
         <v>7</v>
@@ -7471,7 +7471,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C212" t="s">
         <v>7</v>
@@ -7480,16 +7480,16 @@
         <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F212">
         <v>5</v>
       </c>
       <c r="G212" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H212" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
@@ -7497,7 +7497,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C213" t="s">
         <v>7</v>
@@ -7523,7 +7523,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
@@ -7549,7 +7549,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
@@ -7575,7 +7575,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C216" t="s">
         <v>7</v>
@@ -7601,7 +7601,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C217">
         <v>65</v>
@@ -7610,16 +7610,16 @@
         <v>100</v>
       </c>
       <c r="E217" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F217">
         <v>20</v>
       </c>
       <c r="G217" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H217" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
@@ -7627,7 +7627,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C218">
         <v>120</v>
@@ -7636,16 +7636,16 @@
         <v>100</v>
       </c>
       <c r="E218" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F218">
         <v>15</v>
       </c>
       <c r="G218" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H218" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
@@ -7653,7 +7653,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C219">
         <v>90</v>
@@ -7662,16 +7662,16 @@
         <v>100</v>
       </c>
       <c r="E219" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F219">
         <v>10</v>
       </c>
       <c r="G219" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H219" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
@@ -7679,7 +7679,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
@@ -7705,7 +7705,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
@@ -7720,7 +7720,7 @@
         <v>7</v>
       </c>
       <c r="G221" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H221" t="s">
         <v>7</v>
@@ -7731,7 +7731,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C222">
         <v>120</v>
@@ -7740,16 +7740,16 @@
         <v>70</v>
       </c>
       <c r="E222" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F222">
         <v>10</v>
       </c>
       <c r="G222" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H222" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
@@ -7757,7 +7757,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C223" t="s">
         <v>7</v>
@@ -7783,10 +7783,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C224" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D224" t="s">
         <v>6</v>
@@ -7809,16 +7809,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
+        <v>287</v>
+      </c>
+      <c r="C225" t="s">
+        <v>288</v>
+      </c>
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" t="s">
         <v>289</v>
-      </c>
-      <c r="C225" t="s">
-        <v>290</v>
-      </c>
-      <c r="D225" t="s">
-        <v>7</v>
-      </c>
-      <c r="E225" t="s">
-        <v>291</v>
       </c>
       <c r="F225" t="s">
         <v>7</v>
@@ -7835,10 +7835,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C226" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D226" t="s">
         <v>7</v>
@@ -7861,7 +7861,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
@@ -7873,7 +7873,7 @@
         <v>7</v>
       </c>
       <c r="F227" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G227" t="s">
         <v>7</v>
@@ -7887,7 +7887,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
@@ -7913,10 +7913,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C229" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D229" t="s">
         <v>7</v>
@@ -7939,10 +7939,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C230" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D230" t="s">
         <v>7</v>
@@ -7951,7 +7951,7 @@
         <v>7</v>
       </c>
       <c r="F230" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G230" t="s">
         <v>7</v>
@@ -7965,7 +7965,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
@@ -7980,7 +7980,7 @@
         <v>7</v>
       </c>
       <c r="G231" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H231" t="s">
         <v>7</v>
@@ -7991,19 +7991,19 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C232" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D232" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E232" t="s">
         <v>7</v>
       </c>
       <c r="F232" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G232" t="s">
         <v>7</v>
@@ -8017,7 +8017,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
@@ -8029,7 +8029,7 @@
         <v>7</v>
       </c>
       <c r="F233" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G233" t="s">
         <v>7</v>
@@ -8043,10 +8043,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C234" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D234" t="s">
         <v>7</v>
@@ -8069,7 +8069,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
@@ -8081,7 +8081,7 @@
         <v>7</v>
       </c>
       <c r="F235" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G235" t="s">
         <v>7</v>
@@ -8095,7 +8095,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
@@ -8107,7 +8107,7 @@
         <v>7</v>
       </c>
       <c r="F236" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G236" t="s">
         <v>7</v>
@@ -8121,7 +8121,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
@@ -8133,7 +8133,7 @@
         <v>7</v>
       </c>
       <c r="F237" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G237" t="s">
         <v>7</v>
@@ -8147,7 +8147,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C238">
         <v>60</v>
@@ -8156,16 +8156,16 @@
         <v>100</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F238">
         <v>10</v>
       </c>
       <c r="G238" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H238" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.35">
@@ -8173,19 +8173,19 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C239" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D239" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E239" t="s">
         <v>7</v>
       </c>
       <c r="F239" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G239" t="s">
         <v>7</v>
@@ -8199,10 +8199,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C240" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D240" t="s">
         <v>7</v>
@@ -8225,7 +8225,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C241" t="s">
         <v>7</v>
@@ -8237,7 +8237,7 @@
         <v>7</v>
       </c>
       <c r="F241" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G241" t="s">
         <v>7</v>
@@ -8251,7 +8251,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C242" t="s">
         <v>7</v>
@@ -8263,7 +8263,7 @@
         <v>7</v>
       </c>
       <c r="F242" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G242" t="s">
         <v>7</v>
@@ -8277,7 +8277,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
@@ -8295,7 +8295,7 @@
         <v>30</v>
       </c>
       <c r="H243" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.35">
@@ -8303,7 +8303,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
@@ -8329,7 +8329,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C245" t="s">
         <v>7</v>
@@ -8338,7 +8338,7 @@
         <v>7</v>
       </c>
       <c r="E245" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F245" t="s">
         <v>7</v>
@@ -8355,7 +8355,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C246" t="s">
         <v>7</v>
@@ -8373,7 +8373,7 @@
         <v>7</v>
       </c>
       <c r="H246" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.35">
@@ -8381,10 +8381,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C247" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D247" t="s">
         <v>7</v>
@@ -8393,7 +8393,7 @@
         <v>7</v>
       </c>
       <c r="F247" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G247" t="s">
         <v>34</v>
@@ -8407,7 +8407,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
@@ -8433,10 +8433,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C249" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D249" t="s">
         <v>7</v>
@@ -8445,7 +8445,7 @@
         <v>7</v>
       </c>
       <c r="F249" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G249" t="s">
         <v>7</v>
@@ -8459,10 +8459,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C250" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D250" t="s">
         <v>7</v>
@@ -8485,13 +8485,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C251" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D251" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E251" t="s">
         <v>7</v>
@@ -8511,10 +8511,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C252" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D252" t="s">
         <v>7</v>
@@ -8537,7 +8537,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C253" t="s">
         <v>7</v>
@@ -8555,7 +8555,7 @@
         <v>7</v>
       </c>
       <c r="H253" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.35">
@@ -8563,10 +8563,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C254" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D254" t="s">
         <v>7</v>
@@ -8589,7 +8589,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C255">
         <v>40</v>
@@ -8598,13 +8598,13 @@
         <v>100</v>
       </c>
       <c r="E255" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F255">
         <v>20</v>
       </c>
       <c r="G255" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H255" t="s">
         <v>15</v>
@@ -8615,7 +8615,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C256">
         <v>50</v>
@@ -8624,16 +8624,16 @@
         <v>85</v>
       </c>
       <c r="E256" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F256">
         <v>10</v>
       </c>
       <c r="G256" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H256" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.35">
@@ -8641,7 +8641,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C257">
         <v>75</v>
@@ -8650,16 +8650,16 @@
         <v>100</v>
       </c>
       <c r="E257" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F257">
         <v>20</v>
       </c>
       <c r="G257" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H257" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.35">
@@ -8667,7 +8667,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
@@ -8693,7 +8693,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C259" t="s">
         <v>7</v>
@@ -8719,7 +8719,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C260" t="s">
         <v>7</v>
@@ -8745,7 +8745,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C261" t="s">
         <v>7</v>
@@ -8771,16 +8771,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
       </c>
       <c r="D262" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E262" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F262" t="s">
         <v>7</v>
@@ -8797,7 +8797,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C263">
         <v>80</v>
@@ -8812,7 +8812,7 @@
         <v>15</v>
       </c>
       <c r="G263" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H263" t="s">
         <v>14</v>
@@ -8823,7 +8823,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C264" t="s">
         <v>7</v>
@@ -8849,7 +8849,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
@@ -8875,10 +8875,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C266" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D266" t="s">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         <v>22</v>
       </c>
       <c r="F266" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G266" t="s">
         <v>7</v>
@@ -8901,7 +8901,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C267">
         <v>185</v>
@@ -8910,16 +8910,16 @@
         <v>90</v>
       </c>
       <c r="E267" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F267">
         <v>5</v>
       </c>
       <c r="G267" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H267" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.35">
@@ -8927,7 +8927,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
@@ -8953,25 +8953,25 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
+        <v>336</v>
+      </c>
+      <c r="C269" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269" t="s">
+        <v>7</v>
+      </c>
+      <c r="F269" t="s">
+        <v>190</v>
+      </c>
+      <c r="G269" t="s">
+        <v>7</v>
+      </c>
+      <c r="H269" t="s">
         <v>338</v>
-      </c>
-      <c r="C269" t="s">
-        <v>7</v>
-      </c>
-      <c r="D269" t="s">
-        <v>7</v>
-      </c>
-      <c r="E269" t="s">
-        <v>7</v>
-      </c>
-      <c r="F269" t="s">
-        <v>192</v>
-      </c>
-      <c r="G269" t="s">
-        <v>7</v>
-      </c>
-      <c r="H269" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.35">
@@ -8979,7 +8979,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C270" t="s">
         <v>7</v>
@@ -9005,7 +9005,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C271">
         <v>75</v>
@@ -9014,16 +9014,16 @@
         <v>95</v>
       </c>
       <c r="E271" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F271">
         <v>15</v>
       </c>
       <c r="G271" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H271" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.35">
@@ -9031,7 +9031,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
@@ -9057,7 +9057,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
@@ -9083,7 +9083,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C274" t="s">
         <v>7</v>
@@ -9109,7 +9109,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
@@ -9135,7 +9135,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
@@ -9161,7 +9161,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C277" t="s">
         <v>7</v>
@@ -9187,7 +9187,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C278" t="s">
         <v>7</v>
@@ -9213,7 +9213,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C279">
         <v>80</v>
@@ -9222,13 +9222,13 @@
         <v>100</v>
       </c>
       <c r="E279" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F279">
         <v>15</v>
       </c>
       <c r="G279" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H279" t="s">
         <v>14</v>
@@ -9239,7 +9239,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C280" t="s">
         <v>7</v>
@@ -9265,7 +9265,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C281" t="s">
         <v>7</v>
@@ -9291,7 +9291,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C282" t="s">
         <v>7</v>
@@ -9317,10 +9317,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C283" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D283" t="s">
         <v>7</v>
@@ -9343,7 +9343,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C284" t="s">
         <v>7</v>
@@ -9369,7 +9369,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C285">
         <v>90</v>
@@ -9378,16 +9378,16 @@
         <v>100</v>
       </c>
       <c r="E285" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F285">
         <v>15</v>
       </c>
       <c r="G285" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H285" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.35">
@@ -9395,7 +9395,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C286" t="s">
         <v>7</v>
@@ -9421,7 +9421,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C287" t="s">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C288" t="s">
         <v>7</v>
@@ -9473,7 +9473,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C289" t="s">
         <v>7</v>
@@ -9499,7 +9499,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C290" t="s">
         <v>7</v>
@@ -9525,7 +9525,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C291">
         <v>90</v>
@@ -9534,13 +9534,13 @@
         <v>90</v>
       </c>
       <c r="E291" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F291">
         <v>10</v>
       </c>
       <c r="G291" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H291" t="s">
         <v>7</v>
@@ -9551,10 +9551,10 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C292" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D292" t="s">
         <v>7</v>
@@ -9577,7 +9577,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C293">
         <v>100</v>
@@ -9586,13 +9586,13 @@
         <v>85</v>
       </c>
       <c r="E293" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F293">
         <v>10</v>
       </c>
       <c r="G293" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H293" t="s">
         <v>7</v>
@@ -9603,7 +9603,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C294" t="s">
         <v>7</v>
@@ -9629,7 +9629,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C295" t="s">
         <v>7</v>
@@ -9655,7 +9655,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C296">
         <v>60</v>
@@ -9664,16 +9664,16 @@
         <v>100</v>
       </c>
       <c r="E296" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F296">
         <v>10</v>
       </c>
       <c r="G296" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H296" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.35">
@@ -9681,7 +9681,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C297">
         <v>250</v>
@@ -9690,16 +9690,16 @@
         <v>100</v>
       </c>
       <c r="E297" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F297">
         <v>5</v>
       </c>
       <c r="G297" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H297" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.35">
@@ -9707,7 +9707,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C298" t="s">
         <v>7</v>
@@ -9733,13 +9733,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C299" t="s">
         <v>7</v>
       </c>
       <c r="D299" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E299" t="s">
         <v>7</v>
@@ -9759,7 +9759,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C300" t="s">
         <v>7</v>
@@ -9785,7 +9785,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C301" t="s">
         <v>7</v>
@@ -9811,13 +9811,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C302" t="s">
         <v>7</v>
       </c>
       <c r="D302" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E302" t="s">
         <v>7</v>
@@ -9837,7 +9837,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C303">
         <v>85</v>
@@ -9846,16 +9846,16 @@
         <v>85</v>
       </c>
       <c r="E303" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F303">
         <v>10</v>
       </c>
       <c r="G303" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H303" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.35">
@@ -9863,7 +9863,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C304" t="s">
         <v>7</v>
@@ -9889,7 +9889,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C305" t="s">
         <v>7</v>
@@ -9915,10 +9915,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C306" t="s">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="D306" t="s">
         <v>7</v>
@@ -9927,13 +9927,13 @@
         <v>7</v>
       </c>
       <c r="F306" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="G306" t="s">
         <v>7</v>
       </c>
       <c r="H306" t="s">
-        <v>367</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.35">
@@ -9941,7 +9941,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C307" t="s">
         <v>7</v>
@@ -9967,10 +9967,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C308" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D308" t="s">
         <v>7</v>
@@ -9993,10 +9993,10 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C309" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D309" t="s">
         <v>7</v>
@@ -10019,7 +10019,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C310" t="s">
         <v>7</v>
@@ -10045,10 +10045,10 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C311" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D311" t="s">
         <v>7</v>
@@ -10071,7 +10071,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C312" t="s">
         <v>7</v>
@@ -10097,7 +10097,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C313" t="s">
         <v>7</v>
@@ -10123,7 +10123,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C314" t="s">
         <v>7</v>
@@ -10149,7 +10149,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C315" t="s">
         <v>7</v>
@@ -10175,7 +10175,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C316" t="s">
         <v>7</v>
@@ -10201,7 +10201,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C317" t="s">
         <v>7</v>
@@ -10227,10 +10227,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C318" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D318" t="s">
         <v>7</v>
@@ -10253,10 +10253,10 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C319" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D319" t="s">
         <v>7</v>
@@ -10265,7 +10265,7 @@
         <v>7</v>
       </c>
       <c r="F319" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G319" t="s">
         <v>7</v>
@@ -10279,7 +10279,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C320" t="s">
         <v>7</v>
@@ -10291,7 +10291,7 @@
         <v>7</v>
       </c>
       <c r="F320" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G320" t="s">
         <v>7</v>
@@ -10305,25 +10305,25 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>383</v>
+        <v>526</v>
       </c>
       <c r="C321" t="s">
-        <v>7</v>
-      </c>
-      <c r="D321" t="s">
-        <v>87</v>
+        <v>527</v>
+      </c>
+      <c r="D321">
+        <v>100</v>
       </c>
       <c r="E321" t="s">
-        <v>7</v>
-      </c>
-      <c r="F321" t="s">
-        <v>7</v>
+        <v>441</v>
+      </c>
+      <c r="F321">
+        <v>20</v>
       </c>
       <c r="G321" t="s">
-        <v>7</v>
+        <v>424</v>
       </c>
       <c r="H321" t="s">
-        <v>7</v>
+        <v>528</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.35">
@@ -10331,7 +10331,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C322" t="s">
         <v>7</v>
@@ -10357,7 +10357,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C323" t="s">
         <v>7</v>
@@ -10383,7 +10383,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C324" t="s">
         <v>7</v>
@@ -10409,7 +10409,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C325" t="s">
         <v>7</v>
@@ -10435,10 +10435,10 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C326" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D326" t="s">
         <v>7</v>
@@ -10461,7 +10461,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C327" t="s">
         <v>7</v>
@@ -10473,7 +10473,7 @@
         <v>7</v>
       </c>
       <c r="F327" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G327" t="s">
         <v>7</v>
@@ -10487,10 +10487,10 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C328" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D328" t="s">
         <v>7</v>
@@ -10513,13 +10513,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C329" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D329" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E329" t="s">
         <v>7</v>
@@ -10539,7 +10539,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C330" t="s">
         <v>7</v>
@@ -10565,7 +10565,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C331" t="s">
         <v>7</v>
@@ -10591,10 +10591,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C332" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D332" t="s">
         <v>7</v>
@@ -10617,10 +10617,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C333" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D333" t="s">
         <v>7</v>
@@ -10643,10 +10643,10 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C334" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D334" t="s">
         <v>7</v>
@@ -10669,7 +10669,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C335" t="s">
         <v>7</v>
@@ -10695,7 +10695,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C336" t="s">
         <v>7</v>
@@ -10721,7 +10721,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C337" t="s">
         <v>7</v>
@@ -10733,7 +10733,7 @@
         <v>7</v>
       </c>
       <c r="F337" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G337" t="s">
         <v>7</v>
@@ -10747,10 +10747,10 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C338" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D338" t="s">
         <v>7</v>
@@ -10773,10 +10773,10 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C339" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D339" t="s">
         <v>7</v>
@@ -10799,7 +10799,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C340" t="s">
         <v>7</v>
@@ -10825,7 +10825,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C341" t="s">
         <v>7</v>
@@ -10837,7 +10837,7 @@
         <v>7</v>
       </c>
       <c r="F341" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G341" t="s">
         <v>7</v>
@@ -10851,7 +10851,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C342" t="s">
         <v>7</v>
@@ -10889,7 +10889,7 @@
         <v>7</v>
       </c>
       <c r="F343" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G343" t="s">
         <v>7</v>
@@ -10903,10 +10903,10 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C344" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D344" t="s">
         <v>7</v>
@@ -10915,7 +10915,7 @@
         <v>7</v>
       </c>
       <c r="F344" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G344" t="s">
         <v>7</v>
@@ -10929,7 +10929,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C345" t="s">
         <v>7</v>
@@ -10955,10 +10955,10 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C346" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D346" t="s">
         <v>7</v>
@@ -10981,7 +10981,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C347" t="s">
         <v>7</v>
@@ -11007,7 +11007,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C348" t="s">
         <v>7</v>
@@ -11033,7 +11033,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C349" t="s">
         <v>7</v>
@@ -11059,7 +11059,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C350" t="s">
         <v>7</v>
@@ -11085,10 +11085,10 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C351" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D351" t="s">
         <v>7</v>
@@ -11111,10 +11111,10 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C352" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D352" t="s">
         <v>7</v>
@@ -11137,7 +11137,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C353" t="s">
         <v>7</v>
@@ -11163,7 +11163,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C354">
         <v>80</v>
@@ -11172,16 +11172,16 @@
         <v>100</v>
       </c>
       <c r="E354" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F354">
         <v>15</v>
       </c>
       <c r="G354" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H354" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.35">
@@ -11189,7 +11189,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C355">
         <v>50</v>
@@ -11198,16 +11198,16 @@
         <v>100</v>
       </c>
       <c r="E355" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F355">
         <v>10</v>
       </c>
       <c r="G355" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H355" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Moves_rebalance.xlsx
+++ b/Documentation/Moves_rebalance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B45E9-9990-4CBA-A845-895546484EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199AA1C9-1FE8-48B3-B30E-35E2FF2E2B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6AFD99A4-200C-4842-AF5C-A76FCDBB921C}"/>
   </bookViews>
@@ -1971,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0B04A4-C62F-4DD5-A61E-487735385639}">
   <dimension ref="A1:H355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="F210" sqref="F210"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="D310" sqref="D310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10074,7 +10074,7 @@
         <v>519</v>
       </c>
       <c r="C312" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
       <c r="D312" t="s">
         <v>7</v>
